--- a/21-change-_count=0-for-summary=count/ig/StructureDefinition-clinical-trial.xlsx
+++ b/21-change-_count=0-for-summary=count/ig/StructureDefinition-clinical-trial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T07:50:34+00:00</t>
+    <t>2024-12-31T13:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
